--- a/Google.xlsx
+++ b/Google.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gus-c\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B88E848B-2FF6-4434-A78F-F6E0ECE5CF4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B92CECF-096F-4E5E-8943-F2105951382D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FC0C9081-A75D-4766-A729-B939A9D07BD0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{FC0C9081-A75D-4766-A729-B939A9D07BD0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet name="Model" sheetId="2" r:id="rId2"/>
+    <sheet name="Formulas" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Price</t>
   </si>
@@ -47,19 +49,175 @@
     <t>Cash</t>
   </si>
   <si>
-    <t>po</t>
-  </si>
-  <si>
-    <t>EV</t>
+    <t>Shares (in M)</t>
+  </si>
+  <si>
+    <t>Debt</t>
+  </si>
+  <si>
+    <t>Net Cash</t>
+  </si>
+  <si>
+    <t>EV (Enterprise Value)</t>
+  </si>
+  <si>
+    <t>EV = Value you are paying for the business itself.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We want to know how much we are really paying, but since cash is free money, we subtract it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It subtracts cash, because that is free (comes included when you buy the company). Adds debt because we have to pay it eventually.</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Starting Year</t>
+  </si>
+  <si>
+    <t>Gross Profit</t>
+  </si>
+  <si>
+    <t>Statement of Income (in Millions)</t>
+  </si>
+  <si>
+    <t>COGS =  Revenue - Gross Profit</t>
+  </si>
+  <si>
+    <t>Gross profit = Revenue - COGS</t>
+  </si>
+  <si>
+    <t>MC = Outstanding shares * Price</t>
+  </si>
+  <si>
+    <t>EV = Market Cap + Debt - Cash</t>
+  </si>
+  <si>
+    <t>EV = How much you're paying for the business itself</t>
+  </si>
+  <si>
+    <t>Gross profit is the profit a company makes after deducting the costs associated with making and selling its products, or the costs associated with providing its services. Gross profit will appear on a company's income statement and can be calculated by subtracting the cost of goods sold (COGS) from revenue (sales).</t>
+  </si>
+  <si>
+    <t>Cost of goods sold (COGS) refers to the direct costs of producing the goods sold by a company. This amount includes the cost of the materials and labor directly used to create the good. It excludes indirect expenses, such as distribution costs and sales force costs.</t>
+  </si>
+  <si>
+    <t>Founded</t>
+  </si>
+  <si>
+    <t>Q1 2022</t>
+  </si>
+  <si>
+    <t>OpInc</t>
+  </si>
+  <si>
+    <t>Research &amp; Development</t>
+  </si>
+  <si>
+    <t>Sales &amp; Marketing</t>
+  </si>
+  <si>
+    <t>General &amp; Administrative</t>
+  </si>
+  <si>
+    <t>Operating Expenses</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Net Income</t>
+  </si>
+  <si>
+    <t>Income before income taxes (pretax)</t>
+  </si>
+  <si>
+    <t>Provision for income taxes (taxes)</t>
+  </si>
+  <si>
+    <t>EPS (Earnings per Share)</t>
+  </si>
+  <si>
+    <t>COGS (Cost of revenues)</t>
+  </si>
+  <si>
+    <t>Gross Margin</t>
+  </si>
+  <si>
+    <t>Revenue Growth</t>
+  </si>
+  <si>
+    <t>Cash Flow from Operations (CFFO)</t>
+  </si>
+  <si>
+    <t>Free Cash Flow (FCF)</t>
+  </si>
+  <si>
+    <t>CapEx</t>
+  </si>
+  <si>
+    <t>Other Bets</t>
+  </si>
+  <si>
+    <t>Cloud</t>
+  </si>
+  <si>
+    <t>Services</t>
+  </si>
+  <si>
+    <t>FX (hedging gains)</t>
+  </si>
+  <si>
+    <t>Services Growth</t>
+  </si>
+  <si>
+    <t>Cloud Growth</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="[&lt;999950]\ 0.0,&quot;K&quot;;[&lt;999950000]0.0,,&quot;M&quot;;0.0,,,&quot;B&quot;"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -74,7 +232,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -82,15 +240,72 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -402,45 +617,876 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8D1A933-C108-49C5-8CD8-009DD3887515}">
-  <dimension ref="E8:E13"/>
+  <dimension ref="E1:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="J1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E3" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="15"/>
+      <c r="J3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2207.85</v>
+      </c>
+    </row>
+    <row r="5" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3">
+        <f>667551*1000</f>
+        <v>667551000</v>
+      </c>
+    </row>
+    <row r="6" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="3">
+        <f>F4*F5</f>
+        <v>1473852475350</v>
+      </c>
+    </row>
+    <row r="7" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="3">
+        <f>(133970+30544)*1000000</f>
+        <v>164514000000</v>
+      </c>
+    </row>
+    <row r="8" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="3">
+        <f>(14791)*1000000</f>
+        <v>14791000000</v>
+      </c>
+    </row>
+    <row r="9" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="3">
+        <f>F6-F7+F8</f>
+        <v>1324129475350</v>
+      </c>
+    </row>
+    <row r="11" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="3">
+        <f>F7-F8</f>
+        <v>149723000000</v>
+      </c>
+    </row>
+    <row r="12" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12">
+        <v>1998</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E3:F3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{404AFB5B-2715-4E63-B082-22ADB8EA1A1D}">
+  <dimension ref="A1:Z34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="9.140625" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="4">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="9">
+        <f>(DATE(D1,1,1))</f>
+        <v>43831</v>
+      </c>
+      <c r="D3" s="6">
+        <f>(EDATE(C3,3))</f>
+        <v>43922</v>
+      </c>
+      <c r="E3" s="6">
+        <f t="shared" ref="E3:Z3" si="0">EDATE(D3,3)</f>
+        <v>44013</v>
+      </c>
+      <c r="F3" s="6">
+        <f t="shared" si="0"/>
+        <v>44105</v>
+      </c>
+      <c r="G3" s="6">
+        <f t="shared" si="0"/>
+        <v>44197</v>
+      </c>
+      <c r="H3" s="6">
+        <f t="shared" si="0"/>
+        <v>44287</v>
+      </c>
+      <c r="I3" s="6">
+        <f t="shared" si="0"/>
+        <v>44378</v>
+      </c>
+      <c r="J3" s="6">
+        <f t="shared" si="0"/>
+        <v>44470</v>
+      </c>
+      <c r="K3" s="6">
+        <f t="shared" si="0"/>
+        <v>44562</v>
+      </c>
+      <c r="L3" s="6">
+        <f t="shared" si="0"/>
+        <v>44652</v>
+      </c>
+      <c r="M3" s="6">
+        <f t="shared" si="0"/>
+        <v>44743</v>
+      </c>
+      <c r="N3" s="6">
+        <f t="shared" si="0"/>
+        <v>44835</v>
+      </c>
+      <c r="O3" s="6">
+        <f t="shared" si="0"/>
+        <v>44927</v>
+      </c>
+      <c r="P3" s="6">
+        <f t="shared" si="0"/>
+        <v>45017</v>
+      </c>
+      <c r="Q3" s="6">
+        <f t="shared" si="0"/>
+        <v>45108</v>
+      </c>
+      <c r="R3" s="6">
+        <f t="shared" si="0"/>
+        <v>45200</v>
+      </c>
+      <c r="S3" s="6">
+        <f t="shared" si="0"/>
+        <v>45292</v>
+      </c>
+      <c r="T3" s="6">
+        <f t="shared" si="0"/>
+        <v>45383</v>
+      </c>
+      <c r="U3" s="6">
+        <f t="shared" si="0"/>
+        <v>45474</v>
+      </c>
+      <c r="V3" s="6">
+        <f t="shared" si="0"/>
+        <v>45566</v>
+      </c>
+      <c r="W3" s="6">
+        <f t="shared" si="0"/>
+        <v>45658</v>
+      </c>
+      <c r="X3" s="6">
+        <f t="shared" si="0"/>
+        <v>45748</v>
+      </c>
+      <c r="Y3" s="6">
+        <f t="shared" si="0"/>
+        <v>45839</v>
+      </c>
+      <c r="Z3" s="6">
+        <f t="shared" si="0"/>
+        <v>45931</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="8" t="str">
+        <f>"Q"&amp;INT((MONTH(C3)+2)/3)&amp;"-"&amp;YEAR(C3)</f>
+        <v>Q1-2020</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" ref="D4:Y4" si="1">"Q"&amp;INT((MONTH(D3)+2)/3)&amp;"-"&amp;YEAR(D3)</f>
+        <v>Q2-2020</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="1"/>
+        <v>Q3-2020</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="1"/>
+        <v>Q4-2020</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="1"/>
+        <v>Q1-2021</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="1"/>
+        <v>Q2-2021</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="1"/>
+        <v>Q3-2021</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="1"/>
+        <v>Q4-2021</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="1"/>
+        <v>Q1-2022</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="1"/>
+        <v>Q2-2022</v>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" si="1"/>
+        <v>Q3-2022</v>
+      </c>
+      <c r="N4" t="str">
+        <f t="shared" si="1"/>
+        <v>Q4-2022</v>
+      </c>
+      <c r="O4" t="str">
+        <f t="shared" si="1"/>
+        <v>Q1-2023</v>
+      </c>
+      <c r="P4" t="str">
+        <f t="shared" si="1"/>
+        <v>Q2-2023</v>
+      </c>
+      <c r="Q4" t="str">
+        <f t="shared" si="1"/>
+        <v>Q3-2023</v>
+      </c>
+      <c r="R4" t="str">
+        <f t="shared" si="1"/>
+        <v>Q4-2023</v>
+      </c>
+      <c r="S4" t="str">
+        <f t="shared" si="1"/>
+        <v>Q1-2024</v>
+      </c>
+      <c r="T4" t="str">
+        <f t="shared" si="1"/>
+        <v>Q2-2024</v>
+      </c>
+      <c r="U4" t="str">
+        <f t="shared" si="1"/>
+        <v>Q3-2024</v>
+      </c>
+      <c r="V4" t="str">
+        <f t="shared" si="1"/>
+        <v>Q4-2024</v>
+      </c>
+      <c r="W4" t="str">
+        <f t="shared" si="1"/>
+        <v>Q1-2025</v>
+      </c>
+      <c r="X4" t="str">
+        <f t="shared" si="1"/>
+        <v>Q2-2025</v>
+      </c>
+      <c r="Y4" t="str">
+        <f t="shared" si="1"/>
+        <v>Q3-2025</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B5" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="2">
+        <v>-109</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B6" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="2">
+        <v>198</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B7" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="2">
+        <v>4047</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2">
+        <v>5821</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="2">
+        <v>51178</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2">
+        <v>61472</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="18">
+        <v>55314</v>
+      </c>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18">
+        <v>68011</v>
+      </c>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="12"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2">
+        <v>24103</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2">
+        <v>29599</v>
+      </c>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="2">
+        <f>IFERROR( G9-G10,"")</f>
+        <v>31211</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" ref="H11:K11" si="2">IFERROR( H9-H10,"")</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <f t="shared" si="2"/>
+        <v>38412</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12">
+        <v>7485</v>
+      </c>
+      <c r="K12">
+        <v>9119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="2">
+        <v>4516</v>
+      </c>
+      <c r="K13" s="2">
+        <v>5825</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="2">
+        <v>2773</v>
+      </c>
+      <c r="K14" s="2">
+        <v>3374</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="2">
+        <f>SUM(G12:G14)</f>
+        <v>14774</v>
+      </c>
+      <c r="H15" s="2">
+        <f t="shared" ref="H15:K15" si="3">SUM(H12:H14)</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="2">
+        <f t="shared" si="3"/>
+        <v>18318</v>
+      </c>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" ref="G16:J16" si="4">G11-G15</f>
+        <v>16437</v>
+      </c>
+      <c r="H16" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="2">
+        <f>K11-K15</f>
+        <v>20094</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="2">
+        <v>4846</v>
+      </c>
+      <c r="K17" s="2">
+        <v>-1160</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="2">
+        <f>G16+G17</f>
+        <v>21283</v>
+      </c>
+      <c r="H18" s="2">
+        <f t="shared" ref="H18:K18" si="5">H16+H17</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="2">
+        <f t="shared" si="5"/>
+        <v>18934</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19">
+        <v>3353</v>
+      </c>
+      <c r="K19">
+        <v>2498</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="2">
+        <f>G18-G19</f>
+        <v>17930</v>
+      </c>
+      <c r="H20" s="2">
+        <f t="shared" ref="H20:K20" si="6">H18-H19</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="2">
+        <f t="shared" si="6"/>
+        <v>16436</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21">
+        <f t="shared" ref="G21:J21" si="7">IFERROR( G20/G22,"")</f>
+        <v>26.287585896482916</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="K21">
+        <f>IFERROR( K20/K22,"")</f>
+        <v>24.621339792764896</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>682.07100000000003</v>
+      </c>
+      <c r="K22">
+        <v>667.55100000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="20">
+        <f>K9/G9-1</f>
+        <v>0.22954405756228069</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+      <c r="K25" s="17">
+        <f>K8/G8-1</f>
+        <v>0.20114111532299028</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>46</v>
+      </c>
+      <c r="K26" s="17">
+        <f>K7/G7-1</f>
+        <v>0.4383493946132937</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" s="17">
+        <f>IFERROR( G11/G9,"")</f>
+        <v>0.56425136493473627</v>
+      </c>
+      <c r="H27" s="17" t="str">
+        <f t="shared" ref="H27:K27" si="8">IFERROR( H11/H9,"")</f>
+        <v/>
+      </c>
+      <c r="I27" s="17" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="J27" s="17" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="K27" s="17">
+        <f t="shared" si="8"/>
+        <v>0.5647909896928438</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32" s="2">
+        <v>19289</v>
+      </c>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2">
+        <v>25106</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+      <c r="G33" s="2">
+        <v>-5942</v>
+      </c>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2">
+        <v>-9786</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>39</v>
+      </c>
+      <c r="G34" s="2">
+        <f>G32+G33</f>
+        <v>13347</v>
+      </c>
+      <c r="H34" s="2">
+        <f t="shared" ref="H34:K34" si="9">H32+H33</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="2">
+        <f t="shared" si="9"/>
+        <v>15320</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{70444B2B-6B0C-480A-A7D1-10980D089C5C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A8A4E8D-667C-4737-A22D-97EBDDE12299}">
+  <dimension ref="A1:T6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="8" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E13" t="s">
-        <v>5</v>
+    <row r="1" spans="1:20" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+    </row>
+    <row r="2" spans="1:20" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+    </row>
+    <row r="3" spans="1:20" ht="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F1:T1"/>
+    <mergeCell ref="F2:T2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Google.xlsx
+++ b/Google.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gus-c\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B92CECF-096F-4E5E-8943-F2105951382D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF94064E-90D0-46C1-B01E-EA37CB5E94E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{FC0C9081-A75D-4766-A729-B939A9D07BD0}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{FC0C9081-A75D-4766-A729-B939A9D07BD0}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Model" sheetId="2" r:id="rId2"/>
-    <sheet name="Formulas" sheetId="3" r:id="rId3"/>
+    <sheet name="teste" sheetId="4" r:id="rId3"/>
+    <sheet name="Formulas" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Price</t>
   </si>
@@ -176,6 +177,9 @@
   </si>
   <si>
     <t>Cloud Growth</t>
+  </si>
+  <si>
+    <t>dfdfdf</t>
   </si>
 </sst>
 </file>
@@ -183,7 +187,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[&lt;999950]\ 0.0,&quot;K&quot;;[&lt;999950000]0.0,,&quot;M&quot;;0.0,,,&quot;B&quot;"/>
+    <numFmt numFmtId="164" formatCode="[&lt;999950]\ 0.0,&quot;K&quot;;[&lt;999950000]0.0,,&quot;M&quot;;0.0,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -279,7 +283,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -290,17 +294,17 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -641,10 +645,10 @@
       </c>
     </row>
     <row r="3" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="15"/>
+      <c r="F3" s="19"/>
       <c r="J3" t="s">
         <v>9</v>
       </c>
@@ -732,8 +736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{404AFB5B-2715-4E63-B082-22ADB8EA1A1D}">
   <dimension ref="A1:Z34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -951,7 +955,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="17" t="s">
         <v>44</v>
       </c>
       <c r="G5" s="2">
@@ -965,7 +969,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="17" t="s">
         <v>41</v>
       </c>
       <c r="G6" s="2">
@@ -979,7 +983,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="17" t="s">
         <v>42</v>
       </c>
       <c r="G7" s="2">
@@ -993,7 +997,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="17" t="s">
         <v>43</v>
       </c>
       <c r="G8" s="2">
@@ -1007,20 +1011,20 @@
       </c>
     </row>
     <row r="9" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
-      <c r="G9" s="18">
+      <c r="G9" s="16">
         <v>55314</v>
       </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18">
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16">
         <v>68011</v>
       </c>
       <c r="L9" s="12"/>
@@ -1305,7 +1309,7 @@
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
-      <c r="K24" s="20">
+      <c r="K24" s="18">
         <f>K9/G9-1</f>
         <v>0.22954405756228069</v>
       </c>
@@ -1314,7 +1318,7 @@
       <c r="B25" t="s">
         <v>45</v>
       </c>
-      <c r="K25" s="17">
+      <c r="K25" s="15">
         <f>K8/G8-1</f>
         <v>0.20114111532299028</v>
       </c>
@@ -1323,7 +1327,7 @@
       <c r="B26" t="s">
         <v>46</v>
       </c>
-      <c r="K26" s="17">
+      <c r="K26" s="15">
         <f>K7/G7-1</f>
         <v>0.4383493946132937</v>
       </c>
@@ -1332,23 +1336,23 @@
       <c r="B27" t="s">
         <v>36</v>
       </c>
-      <c r="G27" s="17">
+      <c r="G27" s="15">
         <f>IFERROR( G11/G9,"")</f>
         <v>0.56425136493473627</v>
       </c>
-      <c r="H27" s="17" t="str">
+      <c r="H27" s="15" t="str">
         <f t="shared" ref="H27:K27" si="8">IFERROR( H11/H9,"")</f>
         <v/>
       </c>
-      <c r="I27" s="17" t="str">
+      <c r="I27" s="15" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J27" s="17" t="str">
+      <c r="J27" s="15" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K27" s="17">
+      <c r="K27" s="15">
         <f t="shared" si="8"/>
         <v>0.5647909896928438</v>
       </c>
@@ -1415,6 +1419,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE59A32-6D1E-4ADE-A21B-88E474939479}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A8A4E8D-667C-4737-A22D-97EBDDE12299}">
   <dimension ref="A1:T6"/>
   <sheetViews>
@@ -1428,45 +1452,45 @@
       <c r="A1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
     </row>
     <row r="2" spans="1:20" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
     </row>
     <row r="3" spans="1:20" ht="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">

--- a/Google.xlsx
+++ b/Google.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gus-c\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF94064E-90D0-46C1-B01E-EA37CB5E94E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39083950-E109-406D-9E54-272F5173EEB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{FC0C9081-A75D-4766-A729-B939A9D07BD0}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Model" sheetId="2" r:id="rId2"/>
-    <sheet name="teste" sheetId="4" r:id="rId3"/>
-    <sheet name="Formulas" sheetId="3" r:id="rId4"/>
+    <sheet name="Formulas" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Price</t>
   </si>
@@ -177,9 +176,6 @@
   </si>
   <si>
     <t>Cloud Growth</t>
-  </si>
-  <si>
-    <t>dfdfdf</t>
   </si>
 </sst>
 </file>
@@ -1419,30 +1415,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE59A32-6D1E-4ADE-A21B-88E474939479}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A8A4E8D-667C-4737-A22D-97EBDDE12299}">
   <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
